--- a/目标.xlsx
+++ b/目标.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D9301-8556-4B6A-8EAA-64B5E119F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E9CA66-5E4B-4085-8473-C736D249C055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期" sheetId="1" r:id="rId1"/>
@@ -65,76 +65,84 @@
     <t>研究如何优化项目打包流程</t>
   </si>
   <si>
+    <t>优化文件注释，提升可读性</t>
+  </si>
+  <si>
+    <t>研究如何最小化包体积，删除非必要文件</t>
+  </si>
+  <si>
+    <t>引入 `rxjs`</t>
+  </si>
+  <si>
+    <t>研究TypeScript项目编译问题，实现响应式编程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引入 `es7shim` </t>
+  </si>
+  <si>
+    <t>研究多依赖编译问题，确保与JSFL环境兼容</t>
+  </si>
+  <si>
+    <t>研究如何简化项目安装流程</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 整理参考示例，添加到文档中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整理文件夹结构，优化文档 </t>
+  </si>
+  <si>
+    <t>解决 `.d.ts` 文件提示无效问题</t>
+  </si>
+  <si>
+    <t>研究TypeScript配置或工具链问题</t>
+  </si>
+  <si>
+    <t>引入日志系统</t>
+  </si>
+  <si>
+    <t>用CMD控制台代替Adobe Animate输出面板</t>
+  </si>
+  <si>
+    <t>自制输出面板，支持颜色</t>
+  </si>
+  <si>
+    <t>研究如何在JSFL环境中集成日志库（如loglevel），并输出到CMD控制台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待研究 </t>
+  </si>
+  <si>
+    <t>研究TypeScript项目编译问题，确保与JSFL环境兼容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入 `date-fns`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> path-browserify 代替os.path模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">开发支持颜色的输出面板 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试响应速度，研究可行性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">编写一键安装命令 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>为所有文件添加 `descriptions`</t>
-  </si>
-  <si>
-    <t>优化文件注释，提升可读性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生成最小压缩的包</t>
-  </si>
-  <si>
-    <t>研究如何最小化包体积，删除非必要文件</t>
-  </si>
-  <si>
-    <t>引入 `rxjs`</t>
-  </si>
-  <si>
-    <t>研究TypeScript项目编译问题，实现响应式编程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引入 `es7shim` </t>
-  </si>
-  <si>
-    <t>研究多依赖编译问题，确保与JSFL环境兼容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">编写一键安装命令 </t>
-  </si>
-  <si>
-    <t>研究如何简化项目安装流程</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 整理参考示例，添加到文档中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整理文件夹结构，优化文档 </t>
-  </si>
-  <si>
-    <t>解决 `.d.ts` 文件提示无效问题</t>
-  </si>
-  <si>
-    <t>研究TypeScript配置或工具链问题</t>
-  </si>
-  <si>
-    <t>引入日志系统</t>
-  </si>
-  <si>
-    <t>引入 `date-fns`</t>
-  </si>
-  <si>
-    <t>用CMD控制台代替Adobe Animate输出面板</t>
-  </si>
-  <si>
-    <t>自制输出面板，支持颜色</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> path-browserify 代替os.path模块</t>
-  </si>
-  <si>
-    <t>研究如何在JSFL环境中集成日志库（如loglevel），并输出到CMD控制台</t>
-  </si>
-  <si>
-    <t>研究TypeScript项目编译问题，确保与JSFL环境兼容</t>
-  </si>
-  <si>
-    <t>测试响应速度，研究可行性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开发支持颜色的输出面板 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">待研究 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -157,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,9 +197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -468,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:E8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -501,7 +516,7 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -535,10 +550,10 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -546,10 +561,10 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -567,7 +582,7 @@
   <dimension ref="C4:E9"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -588,22 +603,22 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -611,10 +626,10 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -622,10 +637,10 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -633,10 +648,10 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -653,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE253FE9-B6AF-4FB8-B473-8714A421B72C}">
   <dimension ref="C5:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,46 +691,46 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>29</v>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
@@ -723,11 +738,12 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>